--- a/data/trans_bre/P23_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>72,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,7%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,55%</t>
+          <t>-6,29%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>48,05%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>73,5%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 11,95</t>
+          <t>-1,52; 15,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 4,26</t>
+          <t>-15,62; 6,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 8,8</t>
+          <t>-1,05; 9,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 4,28</t>
+          <t>-0,36; 20,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 228,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-44,29; 33,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 130,08</t>
+          <t>-12,42; 256,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-38,5; 24,75</t>
+          <t>-55,27; 55,13</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-10,96; 131,42</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 235,13</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,56%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-16,09%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 2,27</t>
+          <t>-6,66; 6,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 6,12</t>
+          <t>-4,33; 6,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 1,79</t>
+          <t>-7,96; 1,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 6,73</t>
+          <t>-5,44; 6,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 12,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 41,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 12,45</t>
+          <t>-27,62; 34,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 39,4</t>
+          <t>-20,57; 41,64</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-36,6; 9,97</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-25,65; 45,63</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>47,84%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-8,61%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>51,06%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-7,93%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39,41%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 9,41</t>
+          <t>-4,52; 9,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,1</t>
+          <t>1,06; 10,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 2,98</t>
+          <t>-6,44; 3,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 7,55</t>
+          <t>-0,62; 11,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 69,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 108,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 19,68</t>
+          <t>-20,74; 60,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 65,3</t>
+          <t>4,71; 117,06</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-31,78; 24,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 100,42</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-41,65%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 3,55</t>
+          <t>-3,66; 6,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,92</t>
+          <t>-6,13; 5,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 1,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,91</t>
+          <t>-15,23; -3,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 21,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 36,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 13,13</t>
+          <t>-20,9; 51,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 23,52</t>
+          <t>-33,65; 48,44</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-60,01; -15,77</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,94%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 5,03</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 4,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 1,9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 3,63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 32,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,68; 34,77</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-21,38; 13,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-16,16; 23,27</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,11</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,46</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>70,28%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-6,29%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>48,05%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>73,5%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>7.073448554503415</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2055596215914057</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.294340288511481</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.28473357048418</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.7333746376307357</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.01352144669000051</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.4638896430992168</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.7590002508143083</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 15,51</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-15,62; 6,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 9,1</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 20,8</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-12,42; 256,0</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-55,27; 55,13</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-10,96; 131,42</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-1,75; 235,13</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.9504394478913889</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.87610580114063</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.526006862739285</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.4580932086711968</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.1149328233296497</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.506043687899742</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1265995461616511</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.01951370912720449</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.21012755687833</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.447016715900567</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.939461069409212</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>21.78967997725093</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>2.671422859189867</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.617802256083914</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.304240096044536</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.405601253204262</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-1,96%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,04%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-16,09%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,66; 6,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 6,65</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,96; 1,51</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,44; 6,55</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-27,62; 34,68</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-20,57; 41,64</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-36,6; 9,97</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-25,65; 45,63</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.8045944552197704</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.521870815984094</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.585672542383907</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.6952263687792226</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.03951000756627662</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.08318423843704892</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.145006313647345</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.0398803493157177</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,49</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>51,06%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-7,93%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>39,41%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.477860599544587</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.009095543732858</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.501573283244062</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.03866794081144</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.2311307480281864</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.186087113059755</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3452929330281958</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2458387608491228</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,52; 9,23</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 10,85</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,44; 3,36</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 11,21</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-20,74; 60,73</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>4,71; 117,06</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-31,78; 24,21</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; 100,42</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.908671783585185</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.033140102448582</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.007752860322471</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.678177191143917</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.4059886089536389</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4490898623622467</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1385907449225947</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.4906478838162101</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-9,06</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>12,17%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-41,65%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.822409673878866</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.950899884698186</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.677722948663124</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5.257211746241472</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.09622447973481367</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.5117757540932786</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.09586368017809829</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.3727564668667816</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 6,34</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,13; 5,61</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-15,23; -3,21</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-20,9; 51,58</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-33,65; 48,44</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-60,01; -15,77</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.427031726253425</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.9610602243175423</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.825637671114018</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.937483816381246</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.2411179530540725</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.0557124608177785</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.327137665808465</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.05510848123668068</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.643990921381732</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.93165910036235</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.059604535608359</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.96294994313547</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.5800847116213544</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.179576846731537</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.2205773426189635</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.9830157150200777</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>10,96%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>11,6%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-5,94%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,76%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 5,03</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,39; 4,66</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 1,9</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 3,63</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-7,12; 32,74</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-7,68; 34,77</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-21,38; 13,64</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-16,16; 23,27</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.043657245697694</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.497857134840995</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.9687778337860664</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.608038877239057</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.1124562814847599</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1612280968026735</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.06059573157751363</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2921536197556844</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.06761240726686</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.288366821471325</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.893113060735204</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.7274696761926455</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.1030342049178519</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.071357483389672</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.218432106284627</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.03489549756717267</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.289488911115898</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.074746512766885</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.853934642914976</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.591376674474118</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.3952551559950996</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4528859746052554</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1315471111509986</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.6181369102667534</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
